--- a/src/main/resources/static/excels/DANHSACH_SINHVIEN_TEMPLATE.xlsx
+++ b/src/main/resources/static/excels/DANHSACH_SINHVIEN_TEMPLATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationAssignment\3. Delivery\02_HeThongSoTayLienLacDienTu\trunk\source\E2PortalProject-master\src\main\resources\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GraduationAssignment\3. Delivery\02_HeThongSoTayLienLacDienTu\trunk\source\E2PortalProject\src\main\resources\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92A0424-B827-47C2-B602-C668DE2FAF8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78659377-209F-4E24-8CD4-8F00DD563592}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{EAC37D13-4CCB-42E1-9FD5-FADE419EB48D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="181">
   <si>
     <t>DHKTPM12BTT</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>Tên lớp</t>
+  </si>
+  <si>
+    <t>Đại học Kỹ thuật Phần mềm 12B CLC</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1030,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5C3DA56-00CB-4839-A098-E301EC68634F}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1045,24 +1053,27 @@
         <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1071,24 +1082,27 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>1024571</v>
       </c>
     </row>
